--- a/Analytics/F1/TeamFirstCard_f1.xlsx
+++ b/Analytics/F1/TeamFirstCard_f1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="39">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -67,6 +67,9 @@
     <t>12</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Lyon</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Clermont</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
     <t>Lens</t>
   </si>
   <si>
@@ -103,9 +109,6 @@
     <t>Metz</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -122,9 +125,6 @@
   </si>
   <si>
     <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
   </si>
   <si>
     <t>Paris SG</t>
@@ -204,7 +204,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -215,7 +215,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -226,7 +226,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -237,7 +237,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -248,7 +248,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -259,7 +259,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -270,7 +270,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -281,7 +281,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -292,7 +292,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -303,7 +303,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -314,7 +314,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -325,9 +325,20 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -358,7 +369,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -380,7 +391,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -391,7 +402,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -402,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -413,7 +424,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -424,10 +435,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -435,7 +446,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -446,7 +457,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -457,7 +468,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -468,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -479,7 +490,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -487,10 +498,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -498,10 +509,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -509,10 +520,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -520,10 +531,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
@@ -531,10 +542,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -545,7 +556,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -578,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -600,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -611,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -622,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -633,7 +644,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -644,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -655,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -666,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -677,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -688,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -707,7 +718,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -718,10 +729,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -729,10 +740,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -765,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -787,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -798,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -809,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -820,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -842,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -864,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -875,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -886,7 +897,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -894,10 +905,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -905,10 +916,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -916,10 +927,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -927,10 +938,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -963,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -974,7 +985,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>5.0</v>
@@ -985,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -996,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -1007,7 +1018,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -1018,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -1029,10 +1040,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -1040,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -1051,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -1062,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -1073,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -1084,7 +1095,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -1092,10 +1103,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -1103,10 +1114,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -1114,7 +1125,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -1125,7 +1136,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -1136,10 +1147,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -1172,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -1183,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -1194,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -1205,10 +1216,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -1216,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -1227,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -1249,7 +1260,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -1260,7 +1271,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -1271,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -1282,7 +1293,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -1293,7 +1304,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -1301,10 +1312,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -1312,10 +1323,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -1323,10 +1334,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="n">
         <v>3.0</v>
@@ -1334,10 +1345,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
@@ -1345,7 +1356,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -1359,7 +1370,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
         <v>2.0</v>
@@ -1403,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -1414,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -1425,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -1436,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -1458,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -1469,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -1480,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -1491,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -1502,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -1513,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -1521,10 +1532,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -1532,10 +1543,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -1543,10 +1554,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -1554,10 +1565,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -1565,7 +1576,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -1579,7 +1590,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -1623,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -1634,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -1645,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -1656,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -1667,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -1678,7 +1689,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -1689,7 +1700,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1711,7 +1722,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1733,7 +1744,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1741,10 +1752,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1752,10 +1763,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -1763,10 +1774,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -1774,10 +1785,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -1810,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -1843,7 +1854,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -1865,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -1876,7 +1887,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -1887,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -1898,7 +1909,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -1909,7 +1920,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -1920,7 +1931,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -1931,7 +1942,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -1939,10 +1950,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -1950,10 +1961,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -1961,10 +1972,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -1997,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -2008,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -2019,10 +2030,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -2041,7 +2052,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -2052,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -2063,7 +2074,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -2074,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -2085,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -2096,7 +2107,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -2107,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -2118,7 +2129,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -2126,10 +2137,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -2137,7 +2148,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -2148,10 +2159,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -2159,10 +2170,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -2170,10 +2181,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -2206,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -2217,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
         <v>5.0</v>
@@ -2239,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -2250,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2261,7 +2272,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -2272,7 +2283,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -2283,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -2294,7 +2305,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -2305,7 +2316,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -2316,10 +2327,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -2327,7 +2338,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -2335,10 +2346,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -2346,10 +2357,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -2357,10 +2368,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -2368,10 +2379,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
@@ -2379,10 +2390,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -2393,7 +2404,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -2426,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -2448,7 +2459,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -2459,7 +2470,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -2470,7 +2481,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -2481,7 +2492,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -2492,7 +2503,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -2503,7 +2514,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -2536,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -2547,7 +2558,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -2555,10 +2566,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -2566,10 +2577,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -2577,10 +2588,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -2588,10 +2599,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
@@ -2599,10 +2610,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -2613,7 +2624,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
         <v>2.0</v>

--- a/Analytics/F1/TeamFirstCard_f1.xlsx
+++ b/Analytics/F1/TeamFirstCard_f1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="36">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -58,9 +58,51 @@
     <t>9</t>
   </si>
   <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -70,73 +112,22 @@
     <t>13</t>
   </si>
   <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
     <t>Lyon</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Nice</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Rennes</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,10 +195,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,10 +206,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,10 +217,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,10 +228,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,10 +239,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,10 +250,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,10 +261,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,10 +272,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,53 +283,9 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -358,7 +305,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -369,10 +316,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -380,10 +327,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -391,10 +338,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -402,10 +349,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -413,10 +360,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -424,10 +371,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -435,10 +382,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -446,10 +393,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -457,108 +404,9 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -578,7 +426,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -589,10 +437,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -600,10 +448,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -611,10 +459,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -622,10 +470,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -633,10 +481,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -644,10 +492,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -655,10 +503,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -666,86 +514,9 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -765,7 +536,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -776,10 +547,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -787,10 +558,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -801,7 +572,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -809,10 +580,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -820,130 +591,9 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -974,10 +624,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -985,10 +635,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -996,10 +646,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1007,10 +657,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1018,10 +668,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1029,10 +679,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1040,10 +690,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1051,10 +701,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1062,97 +712,20 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1183,10 +756,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1194,10 +767,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1205,10 +778,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1216,10 +789,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1227,10 +800,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1238,10 +811,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +822,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1263,7 +836,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1271,109 +844,54 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1403,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1414,10 +932,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1425,10 +943,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1436,10 +954,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1447,10 +965,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +976,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1469,10 +987,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1480,10 +998,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1491,62 +1009,62 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -1554,45 +1072,12 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1623,10 +1108,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1634,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1645,10 +1130,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1659,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1667,10 +1152,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1678,10 +1163,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1689,10 +1174,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1700,97 +1185,9 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1821,10 +1218,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -1832,10 +1229,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1843,10 +1240,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1854,10 +1251,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1865,10 +1262,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1876,108 +1273,9 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1997,7 +1295,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2008,10 +1306,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -2019,10 +1317,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2030,10 +1328,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -2041,10 +1339,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -2052,10 +1350,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2063,10 +1361,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2074,10 +1372,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -2085,10 +1383,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -2096,97 +1394,20 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2206,7 +1427,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2217,10 +1438,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -2228,10 +1449,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -2239,10 +1460,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -2250,10 +1471,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2261,10 +1482,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2272,10 +1493,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2283,10 +1504,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -2294,10 +1515,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -2305,108 +1526,75 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2426,7 +1614,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2437,10 +1625,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -2448,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -2459,10 +1647,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -2470,10 +1658,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2481,10 +1669,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +1680,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -2503,10 +1691,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -2514,10 +1702,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -2525,109 +1713,65 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/F1/TeamFirstCard_f1.xlsx
+++ b/Analytics/F1/TeamFirstCard_f1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="37">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -58,15 +58,30 @@
     <t>9</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Le Havre</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
     <t>Auxerre</t>
   </si>
   <si>
+    <t>Brest</t>
+  </si>
+  <si>
     <t>Nantes</t>
   </si>
   <si>
@@ -85,7 +100,7 @@
     <t>Lens</t>
   </si>
   <si>
-    <t>10</t>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Marseille</t>
@@ -94,37 +109,25 @@
     <t>Monaco</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
     <t>St Etienne</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
   </si>
   <si>
     <t>Nice</t>
@@ -195,7 +198,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -206,7 +209,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -217,7 +220,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -228,7 +231,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -239,7 +242,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -250,7 +253,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -261,7 +264,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -272,7 +275,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -283,9 +286,42 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -305,7 +341,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -316,10 +352,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -330,7 +366,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -338,10 +374,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -349,7 +385,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -360,7 +396,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -371,7 +407,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -382,7 +418,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -393,7 +429,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -404,9 +440,31 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -426,7 +484,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -437,10 +495,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -448,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -459,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -470,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -481,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -492,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -503,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -514,9 +572,31 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -536,7 +616,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -547,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -558,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -569,10 +649,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -580,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -591,9 +671,86 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -624,10 +781,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -635,10 +792,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -646,10 +803,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -657,10 +814,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -668,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -679,10 +836,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -690,10 +847,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -704,7 +861,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -712,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -720,10 +877,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -756,10 +913,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -767,10 +924,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -778,10 +935,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -789,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -800,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -811,10 +968,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -822,10 +979,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -833,10 +990,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -844,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -852,10 +1009,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -863,10 +1020,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -874,10 +1031,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -888,9 +1045,42 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -921,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -932,10 +1122,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +1133,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -954,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -965,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -976,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -987,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -998,10 +1188,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -1009,29 +1199,29 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1039,10 +1229,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1053,7 +1243,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1061,10 +1251,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -1072,12 +1262,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1108,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -1119,10 +1320,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1130,10 +1331,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1141,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -1152,7 +1353,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1163,7 +1364,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1174,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1185,9 +1386,42 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1218,10 +1452,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1229,10 +1463,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1240,10 +1474,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1251,10 +1485,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1262,10 +1496,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1273,9 +1507,53 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1295,7 +1573,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1306,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -1317,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1328,10 +1606,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1339,10 +1617,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1350,10 +1628,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1361,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1372,7 +1650,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1383,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1394,7 +1672,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1402,12 +1680,34 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1427,7 +1727,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1438,7 +1738,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -1449,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -1460,10 +1760,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1471,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1482,10 +1782,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1493,10 +1793,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1504,10 +1804,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1515,10 +1815,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -1526,26 +1826,26 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -1556,10 +1856,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1570,7 +1870,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1578,10 +1878,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -1589,10 +1889,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -1614,7 +1914,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1625,10 +1925,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1636,10 +1936,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -1647,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -1658,10 +1958,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1669,10 +1969,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -1680,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -1691,7 +1991,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -1702,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1713,43 +2013,43 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -1757,20 +2057,42 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
